--- a/docs/Evidence/Attachment E Approach Criteria Evidence NorthropGrumman.xlsx
+++ b/docs/Evidence/Attachment E Approach Criteria Evidence NorthropGrumman.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="60">
   <si>
     <t>#</t>
   </si>
@@ -150,9 +150,6 @@
 Digital Playbook#1: Understand what people need</t>
   </si>
   <si>
-    <t>also ties into writing stories for the backlog</t>
-  </si>
-  <si>
     <t>We assigned our Product Manager (Ray R.) and gave him the authority, responsibility, and accountability for the MedExplorer prototype. 
 Digital Playbook# 6 Assign one leader and hold that person accountable</t>
   </si>
@@ -240,6 +237,12 @@
     <t>We have provided instructions for installing MedExplorer in your own Docker container system.
 Digital Playbook#9 Deploy in a flexible hosting environment</t>
   </si>
+  <si>
+    <t>http://git.triad.local/NorthropGrumman/MedExplorer/tree/master/docs/Software%20Development/User-Stories</t>
+  </si>
+  <si>
+    <t>http://git.triad.local/NorthropGrumman/MedExplorer/blob/master/docs/User%20Centered%20Design/Design%20Style%20Guide/Style_Guide_Master.pdf</t>
+  </si>
 </sst>
 </file>
 
@@ -317,7 +320,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -354,9 +357,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -48724,10 +48724,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V1002"/>
+  <dimension ref="A1:V1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -48778,7 +48778,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>26</v>
@@ -48810,7 +48810,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>26</v>
@@ -48847,9 +48847,7 @@
       <c r="D4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -48868,49 +48866,45 @@
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
     </row>
-    <row r="5" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="9">
+    <row r="5" spans="1:22" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+    </row>
+    <row r="6" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>45</v>
+      <c r="C6" s="10" t="s">
+        <v>44</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-    </row>
-    <row r="6" spans="1:22" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9">
-        <v>5</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="13"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -48930,18 +48924,18 @@
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
     </row>
-    <row r="7" spans="1:22" ht="51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>29</v>
+      <c r="D7" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -48964,13 +48958,13 @@
     </row>
     <row r="8" spans="1:22" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>29</v>
@@ -48994,18 +48988,18 @@
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
     </row>
-    <row r="9" spans="1:22" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>30</v>
+      <c r="D9" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -49026,18 +49020,18 @@
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
     </row>
-    <row r="10" spans="1:22" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>31</v>
+      <c r="D10" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -49058,18 +49052,18 @@
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
     </row>
-    <row r="11" spans="1:22" ht="51" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>33</v>
+      <c r="D11" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -49090,18 +49084,18 @@
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
     </row>
-    <row r="12" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>32</v>
+      <c r="D12" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -49122,18 +49116,18 @@
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
     </row>
-    <row r="13" spans="1:22" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>51</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -49154,18 +49148,18 @@
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
     </row>
-    <row r="14" spans="1:22" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>50</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -49186,18 +49180,18 @@
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
     </row>
-    <row r="15" spans="1:22" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -49218,18 +49212,18 @@
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
     </row>
-    <row r="16" spans="1:22" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>37</v>
+      <c r="D16" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -49250,18 +49244,18 @@
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
     </row>
-    <row r="17" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
-      <c r="D17" s="11" t="s">
-        <v>38</v>
+      <c r="D17" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -49282,18 +49276,18 @@
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
     </row>
-    <row r="18" spans="1:22" ht="51" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -49314,18 +49308,18 @@
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
     </row>
-    <row r="19" spans="1:22" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -49346,18 +49340,18 @@
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
     </row>
-    <row r="20" spans="1:22" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>57</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -49378,11 +49372,19 @@
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="3"/>
+    <row r="21" spans="1:22" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="9">
+        <v>19</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -72946,27 +72948,53 @@
       <c r="U1002" s="2"/>
       <c r="V1002" s="2"/>
     </row>
+    <row r="1003" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1003" s="2"/>
+      <c r="B1003" s="2"/>
+      <c r="C1003" s="5"/>
+      <c r="D1003" s="3"/>
+      <c r="E1003" s="2"/>
+      <c r="F1003" s="2"/>
+      <c r="G1003" s="2"/>
+      <c r="H1003" s="2"/>
+      <c r="I1003" s="2"/>
+      <c r="J1003" s="2"/>
+      <c r="K1003" s="2"/>
+      <c r="L1003" s="2"/>
+      <c r="M1003" s="2"/>
+      <c r="N1003" s="2"/>
+      <c r="O1003" s="2"/>
+      <c r="P1003" s="2"/>
+      <c r="Q1003" s="2"/>
+      <c r="R1003" s="2"/>
+      <c r="S1003" s="2"/>
+      <c r="T1003" s="2"/>
+      <c r="U1003" s="2"/>
+      <c r="V1003" s="2"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1"/>
     <hyperlink ref="D2" r:id="rId2"/>
     <hyperlink ref="D4" r:id="rId3"/>
-    <hyperlink ref="D5" r:id="rId4"/>
-    <hyperlink ref="D7" r:id="rId5"/>
-    <hyperlink ref="D8" r:id="rId6"/>
-    <hyperlink ref="D10" r:id="rId7" location="open-source-third-party-software-licenses"/>
-    <hyperlink ref="D12" r:id="rId8"/>
-    <hyperlink ref="D11" r:id="rId9"/>
-    <hyperlink ref="D14" r:id="rId10" location="github"/>
-    <hyperlink ref="D15" r:id="rId11"/>
-    <hyperlink ref="D13" r:id="rId12" location="jenkins"/>
-    <hyperlink ref="D17" r:id="rId13"/>
-    <hyperlink ref="D18" r:id="rId14"/>
-    <hyperlink ref="D19" r:id="rId15"/>
-    <hyperlink ref="D20" r:id="rId16"/>
+    <hyperlink ref="D6" r:id="rId4"/>
+    <hyperlink ref="D8" r:id="rId5"/>
+    <hyperlink ref="D9" r:id="rId6"/>
+    <hyperlink ref="D11" r:id="rId7" location="open-source-third-party-software-licenses"/>
+    <hyperlink ref="D13" r:id="rId8"/>
+    <hyperlink ref="D12" r:id="rId9"/>
+    <hyperlink ref="D15" r:id="rId10" location="github"/>
+    <hyperlink ref="D16" r:id="rId11"/>
+    <hyperlink ref="D14" r:id="rId12" location="jenkins"/>
+    <hyperlink ref="D18" r:id="rId13"/>
+    <hyperlink ref="D19" r:id="rId14"/>
+    <hyperlink ref="D20" r:id="rId15"/>
+    <hyperlink ref="D21" r:id="rId16"/>
+    <hyperlink ref="D5" r:id="rId17"/>
+    <hyperlink ref="D7" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId17"/>
+  <pageSetup orientation="portrait" r:id="rId19"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/docs/Evidence/Attachment E Approach Criteria Evidence NorthropGrumman.xlsx
+++ b/docs/Evidence/Attachment E Approach Criteria Evidence NorthropGrumman.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="45">
   <si>
     <t>#</t>
   </si>
@@ -101,82 +101,101 @@
     <t>assembled a multidisciplinary and collaborative team including a minimum of 5 labor categories from the Development Pool labor categories to design and develop the prototype</t>
   </si>
   <si>
-    <t>http://git.triad.local/NorthropGrumman/MedExplorer/blob/master/docs/MedExplorer%20Development%20Team.md</t>
+    <r>
+      <t xml:space="preserve">We used Docker as our container system for our MedExplorer prototype.
+Digital Playbook#4 Build the service using agile and iterative practices
+Digital Playbook#9 Deploy in a flexible hosting environment
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NOTE: [TODO: Need docker screenshot.]</t>
+    </r>
   </si>
   <si>
-    <t>evidence URL</t>
+    <t>Using our Agile framework, which is built upon Scrum, Extreme Programming, and user-centered design techniques, we were able to develop the product in an iterative fashion while receiving regular, timely feedback from users and stakeholders. We conducted an initial sprint 0 as we identified the team and coordinated the infrastructure. Then we used sprint cycles of 5 hours each comprised of sprint planning, execution, and review (demo and retrospective).
+Digital Playbook#4 Build the service using agile and iterative practices
+URL: http://git.triad.local/NorthropGrumman/MedExplorer/blob/master/docs/User%20Centered%20Design/Research%20Findings/Generative_Research.pdf</t>
   </si>
   <si>
-    <t>http://git.triad.local/NorthropGrumman/MedExplorer/blob/master/docs/User%20Centered%20Design/User%20Centered%20Design.md</t>
+    <r>
+      <t xml:space="preserve">Our MedExplorer prototype was design for multiple platforms including PCs, laptops, tablets, and phones.
+Digital Playbook#2 Address the whole experience, from start to finish
+Digital Playbook#7 Bring in experienced teams
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+URL: [TODO: need screenshots and pictures for multiple platforms]</t>
+    </r>
   </si>
   <si>
-    <t>http://git.triad.local/NorthropGrumman/MedExplorer/blob/master/docs/User%20Centered%20Design/Research%20Findings/Generative_Research.pdf</t>
+    <t>Using our Agile framework, which is built upon Scrum, Extreme Programming, and user-centered design techniques, we were able to develop the product in an iterative fashion while receiving regular, timely feedback from users and stakeholders. We conducted an initial sprint 0 as we identified the team and coordinated the infrastructure. Then we used sprint cycles of 5 hours each comprised of sprint planning, execution, and review (demo and retrospective).
+Digital Playbook#4 Build the service using agile and iterative practices
+URL: 
+http://git.triad.local/NorthropGrumman/MedExplorer/blob/master/docs/User%20Centered%20Design/Research%20Findings/Generative_Research.pdf</t>
   </si>
   <si>
-    <t>[TODO: need screenshots and pictures for multiple platforms]</t>
-  </si>
-  <si>
-    <t>http://git.triad.local/NorthropGrumman/MedExplorer/blob/master/License.md#open-source-third-party-software-licenses</t>
-  </si>
-  <si>
-    <t>http://git.triad.local/NorthropGrumman/MedExplorer/tree/master/src/client/test</t>
-  </si>
-  <si>
-    <t>http://MedExplorer.northropgrumman.com/</t>
-  </si>
-  <si>
-    <t>http://git.triad.local/NorthropGrumman/MedExplorer/tree/master/docs/Software%20Development/Screenshots#github</t>
-  </si>
-  <si>
-    <t>http://medexplorer.northropgrumman.com:9001/zabbix/dashboard.php</t>
-  </si>
-  <si>
-    <t>http://git.triad.local/NorthropGrumman/MedExplorer/tree/master/docs/Software%20Development/Screenshots#jenkins</t>
-  </si>
-  <si>
-    <t>[TODO: Need docker screenshot.]</t>
-  </si>
-  <si>
-    <t>http://git.triad.local/NorthropGrumman/MedExplorer/blob/master/src/server/controllers/datasource.js</t>
-  </si>
-  <si>
-    <t>http://git.triad.local/NorthropGrumman/MedExplorer/tree/master/docs/Install%20Procedures</t>
-  </si>
-  <si>
-    <t>http://git.triad.local/NorthropGrumman/MedExplorer/blob/master/License.md</t>
-  </si>
-  <si>
-    <t>Our User Experience design team interviewed and performed user tests with a number for General Public and Clinician users.Users participated in  periodic demonstrations for feedback. Created scenarios and stories.
-Digital Playbook#1: Understand what people need</t>
+    <t>For our MedExplorer prototype, we used the openFDA API for Drug Labeling, Drug Enforcement Reports, and Drug Adverse Events.
+Digital Playbook#13 Default to open
+URL: 
+http://git.triad.local/NorthropGrumman/MedExplorer/blob/master/src/server/controllers/datasource.js</t>
   </si>
   <si>
     <t>We assigned our Product Manager (Ray R.) and gave him the authority, responsibility, and accountability for the MedExplorer prototype. 
-Digital Playbook# 6 Assign one leader and hold that person accountable</t>
+Digital Playbook# 6 Assign one leader and hold that person accountable
+URL: 
+http://git.triad.local/NorthropGrumman/MedExplorer/blob/master/docs/MedExplorer%20Development%20Team.md</t>
   </si>
   <si>
-    <t>Our MedExplorer development team used 10 of the labor categories to design and develop the prototype.
-Digital Playbook#7 Bring in experienced teams</t>
+    <t>Our MedExplorer development team used 10 of the labor categories to design and develop the prototype. 
+Digital Playbook#7 Bring in experienced teams
+URL:
+http://git.triad.local/NorthropGrumman/MedExplorer/blob/master/docs/MedExplorer%20Development%20Team.md</t>
   </si>
   <si>
-    <t>Our User Centered Design approach used a number of techniques and tools, including interviews, focus groups, expextancy tests, generative research, and usability tests.
-Digital Playbook#3 Make it simple and intuitive</t>
+    <t>Our User Experience design team interviewed and performed user tests with a number for General Public and Clinician users. The team also met with Northrop Grumman's Clinical Advisory Group as part of our Health Division. Users participated in periodic demonstrations for feedback. Created scenarios and stories. The team gave periodic demonstrations to walk through scenarios and gather feedback. We captured feedback as user stories and added to the backlog for prioritization.
+Digital Playbook#1: Understand what people need
+URL: 
+http://git.triad.local/NorthropGrumman/MedExplorer/blob/master/docs/User%20Centered%20Design/User%20Centered%20Design.md</t>
   </si>
   <si>
-    <t>Our UX team created a design style guide to provide guidance for the web front end developers.
-Digital Playbook#3 Make it simple and intuitive</t>
+    <t>Our User Centered Design approach used a number of techniques and tools, including interviews, focus groups, expectancy tests, generative research, and usability tests.
+Digital Playbook#3 Make it simple and intuitive
+URL: 
+http://git.triad.local/NorthropGrumman/MedExplorer/blob/master/docs/User%20Centered%20Design/User%20Centered%20Design.md</t>
   </si>
   <si>
-    <t>Our UX team performed a number of usabiilty tests with users and provided feedback to the development staff.
-Digital Playbook#4 Build the service using agile and iterative practices</t>
+    <t>Our UX team performed a number of usability tests with users and provided feedback to the development staff.
+Once we had some initial features in place, usability tests were run daily.
+Digital Playbook#4 Build the service using agile and iterative practices
+URL: 
+http://git.triad.local/NorthropGrumman/MedExplorer/blob/master/docs/User%20Centered%20Design/Research%20Findings/Generative_Research.pdf</t>
   </si>
   <si>
-    <t>Our MedExplorer prototype was desing for multiple platforms including PCs, laptops, tablets, and phones.
-Digital Playbook#2 Address the whole experience, from start to finish
-Digital Playbook#7 Bring in experienced teams</t>
+    <t>Our MedExplorer used a number for modern, open source technologies, including TwitterBootstrap, AngularJS, NodeJS, ExpressJS, Docker, MongoDB, Jenkins and Zabbix.
+Digital Playbook#8 Choose a modern technology stack
+URL: 
+http://git.triad.local/NorthropGrumman/MedExplorer/blob/master/License.md#open-source-third-party-software-licenses</t>
   </si>
   <si>
-    <t>Our MedExplorer used a number for modern, open source tecnologies, including TwitterBootstrap, AngularJS, NodeJS, ExpressJS, Docker, MongoDB, Jenkins and Zabbix.
-Digital Playbook#8 Choose a modern technology stack</t>
+    <t xml:space="preserve">Our development wrote unit tests for their code and was part of the team's definition of done.
+Digital Playbook#10 Automate testing and deployments
+URL: 
+http://git.triad.local/NorthropGrumman/MedExplorer/tree/master/src/client/test 
+http://git.triad.local/NorthropGrumman/MedExplorer/blob/master/docs/Pictures/Definition%20of%20Done.jpg
+</t>
   </si>
   <si>
     <r>
@@ -190,33 +209,22 @@
         <family val="2"/>
       </rPr>
       <t>configuration management systems.
-Digital Playbook#4 Build the service using agile and iterative practices</t>
+Digital Playbook#4 Build the service using agile and iterative practices
+URL: 
+http://git.triad.local/NorthropGrumman/MedExplorer/tree/master/docs/Software%20Development/Screenshots#github</t>
     </r>
   </si>
   <si>
-    <t>Our development team used Jenkins for our continuous integration system to automated running of tests and to perform continuous deployment.
-Digital Playbook#10 Automate testing and deployments</t>
+    <t>We setup and used Zabbix to perform continuous monitoring of our development/test environment and our production environment.
+Digital Playbook#12 Use data to drive decisions
+URL: 
+http://medexplorer.northropgrumman.com:9001/zabbix/dashboard.php</t>
   </si>
   <si>
-    <t>Our development wrote unit tests for their code.
-Digital Playbook#10 Automate testing and deployments</t>
-  </si>
-  <si>
-    <t>Our MedExplorer prototype is deployed on a IaaS provider, we selected IBM SoftLayers as our provider.
-Digital Playbook#9 Deploy in a flexible hosting environment</t>
-  </si>
-  <si>
-    <t>We setup and used Zabbix to perform continuous monitoring of our development/test environment and our production environment.
-Digital Playbook#12 Use data to drive decisions</t>
-  </si>
-  <si>
-    <t>We used Docker as our container system for our MedExplorer prototype.
-Digital Playbook#4 Build the service using agile and iterative practices
-Digital Playbook#9 Deploy in a flexible hosting environment</t>
-  </si>
-  <si>
-    <t>For our MedExplorer prototype, we used the openFDA API for Drug Labeling, Drug Enforcement Reports, and Drug Adverse Events.
-Digital Playbook#13 Default to open</t>
+    <t>We have provided instructions for installing MedExplorer in your own Docker container system.
+Digital Playbook#9 Deploy in a flexible hosting environment
+URL: 
+http://git.triad.local/NorthropGrumman/MedExplorer/tree/master/docs/Install%20Procedures</t>
   </si>
   <si>
     <r>
@@ -230,18 +238,29 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Digital Playbook#13 Default to open</t>
+      <t>Digital Playbook#13 Default to open
+URL: 
+http://git.triad.local/NorthropGrumman/MedExplorer/blob/master/License.md</t>
     </r>
   </si>
   <si>
-    <t>We have provided instructions for installing MedExplorer in your own Docker container system.
-Digital Playbook#9 Deploy in a flexible hosting environment</t>
+    <t>Our development team used Jenkins for our continuous integration system to automate running of tests and to perform continuous deployment.
+Digital Playbook#10 Automate testing and deployments
+URL: 
+http://git.triad.local/NorthropGrumman/MedExplorer/tree/master/docs/Software%20Development/Screenshots#jenkins</t>
   </si>
   <si>
-    <t>http://git.triad.local/NorthropGrumman/MedExplorer/tree/master/docs/Software%20Development/User-Stories</t>
+    <t xml:space="preserve">Our MedExplorer prototype is deployed on a IaaS provider, we selected IBM SoftLayers as our provider.
+Digital Playbook#9 Deploy in a flexible hosting environment
+URL: 
+http://MedExplorer.northropgrumman.com/
+</t>
   </si>
   <si>
-    <t>http://git.triad.local/NorthropGrumman/MedExplorer/blob/master/docs/User%20Centered%20Design/Design%20Style%20Guide/Style_Guide_Master.pdf</t>
+    <t>Our UX team created a design style guide to provide guidance for the web front end developers. Style guides were updated each sprint with development.
+Digital Playbook#3 Make it simple and intuitive
+URL: 
+http://git.triad.local/NorthropGrumman/MedExplorer/blob/master/docs/User%20Centered%20Design/Design%20Style%20Guide/Style_Guide_Master.pdf</t>
   </si>
 </sst>
 </file>
@@ -265,14 +284,14 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
       <sz val="10"/>
-      <color theme="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -316,9 +335,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -337,9 +355,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -352,18 +367,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -701,7 +718,7 @@
   <dimension ref="A1:V997"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -24713,8 +24730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V996"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -48724,33 +48741,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V1003"/>
+  <dimension ref="A1:V1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="41.140625" customWidth="1"/>
-    <col min="3" max="3" width="51" style="6" customWidth="1"/>
-    <col min="4" max="4" width="42.85546875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="91" style="13" customWidth="1"/>
+    <col min="4" max="4" width="42.85546875" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>27</v>
-      </c>
+      <c r="D1" s="1"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -48770,19 +48785,17 @@
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
     </row>
-    <row r="2" spans="1:22" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9">
+    <row r="2" spans="1:22" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>42</v>
+      <c r="C2" s="9" t="s">
+        <v>31</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>26</v>
-      </c>
+      <c r="D2" s="11"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -48802,19 +48815,17 @@
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
     </row>
-    <row r="3" spans="1:22" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9">
+    <row r="3" spans="1:22" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>43</v>
+      <c r="C3" s="9" t="s">
+        <v>32</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>26</v>
-      </c>
+      <c r="D3" s="11"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -48834,19 +48845,17 @@
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
     </row>
-    <row r="4" spans="1:22" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9">
+    <row r="4" spans="1:22" ht="141" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>41</v>
+      <c r="C4" s="12" t="s">
+        <v>33</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="D4" s="11"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -48866,44 +48875,45 @@
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
     </row>
-    <row r="5" spans="1:22" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-    </row>
-    <row r="6" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9">
+    <row r="5" spans="1:22" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+    </row>
+    <row r="6" spans="1:22" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>28</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -48924,19 +48934,17 @@
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
     </row>
-    <row r="7" spans="1:22" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="9">
-        <v>5</v>
+    <row r="7" spans="1:22" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8">
+        <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>9</v>
+      <c r="B7" s="8" t="s">
+        <v>13</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>45</v>
+      <c r="C7" s="12" t="s">
+        <v>35</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>59</v>
-      </c>
+      <c r="D7" s="11"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -48956,19 +48964,17 @@
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
     </row>
-    <row r="8" spans="1:22" ht="51" x14ac:dyDescent="0.2">
-      <c r="A8" s="9">
-        <v>6</v>
+    <row r="8" spans="1:22" ht="118.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8">
+        <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>13</v>
+      <c r="B8" s="8" t="s">
+        <v>14</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>46</v>
+      <c r="C8" s="9" t="s">
+        <v>27</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>29</v>
-      </c>
+      <c r="D8" s="11"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -48988,19 +48994,17 @@
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
     </row>
-    <row r="9" spans="1:22" ht="51" x14ac:dyDescent="0.2">
-      <c r="A9" s="9">
-        <v>7</v>
+    <row r="9" spans="1:22" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8">
+        <v>8</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>14</v>
+      <c r="B9" s="8" t="s">
+        <v>17</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>46</v>
+      <c r="C9" s="9" t="s">
+        <v>28</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>29</v>
-      </c>
+      <c r="D9" s="3"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -49020,19 +49024,17 @@
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
     </row>
-    <row r="10" spans="1:22" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="9">
-        <v>8</v>
+    <row r="10" spans="1:22" ht="110.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8">
+        <v>9</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>17</v>
+      <c r="B10" s="8" t="s">
+        <v>6</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>47</v>
+      <c r="C10" s="9" t="s">
+        <v>36</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>30</v>
-      </c>
+      <c r="D10" s="11"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -49052,19 +49054,17 @@
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
     </row>
-    <row r="11" spans="1:22" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="9">
-        <v>9</v>
+    <row r="11" spans="1:22" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="8">
+        <v>10</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>6</v>
+      <c r="B11" s="8" t="s">
+        <v>8</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>48</v>
+      <c r="C11" s="9" t="s">
+        <v>43</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>31</v>
-      </c>
+      <c r="D11" s="11"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -49084,19 +49084,17 @@
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
     </row>
-    <row r="12" spans="1:22" ht="51" x14ac:dyDescent="0.2">
-      <c r="A12" s="9">
+    <row r="12" spans="1:22" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>8</v>
+      <c r="C12" s="9" t="s">
+        <v>37</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>33</v>
-      </c>
+      <c r="D12" s="11"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -49116,19 +49114,17 @@
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
     </row>
-    <row r="13" spans="1:22" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="9">
-        <v>11</v>
+    <row r="13" spans="1:22" ht="110.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8">
+        <v>12</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>10</v>
+      <c r="B13" s="8" t="s">
+        <v>12</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>51</v>
+      <c r="C13" s="9" t="s">
+        <v>42</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>32</v>
-      </c>
+      <c r="D13" s="11"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -49148,19 +49144,17 @@
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
     </row>
-    <row r="14" spans="1:22" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="9">
-        <v>12</v>
+    <row r="14" spans="1:22" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="8">
+        <v>13</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>12</v>
+      <c r="B14" s="8" t="s">
+        <v>15</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>50</v>
+      <c r="C14" s="9" t="s">
+        <v>38</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>36</v>
-      </c>
+      <c r="D14" s="11"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -49180,19 +49174,17 @@
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
     </row>
-    <row r="15" spans="1:22" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="9">
-        <v>13</v>
+    <row r="15" spans="1:22" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8">
+        <v>14</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>15</v>
+      <c r="B15" s="8" t="s">
+        <v>16</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>49</v>
+      <c r="C15" s="9" t="s">
+        <v>39</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>34</v>
-      </c>
+      <c r="D15" s="11"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -49212,19 +49204,17 @@
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
     </row>
-    <row r="16" spans="1:22" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="9">
-        <v>14</v>
+    <row r="16" spans="1:22" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="8">
+        <v>15</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>16</v>
+      <c r="B16" s="8" t="s">
+        <v>18</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>53</v>
+      <c r="C16" s="9" t="s">
+        <v>26</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>35</v>
-      </c>
+      <c r="D16" s="3"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -49244,19 +49234,17 @@
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
     </row>
-    <row r="17" spans="1:22" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="9">
-        <v>15</v>
+    <row r="17" spans="1:22" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="8">
+        <v>16</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>18</v>
+      <c r="B17" s="8" t="s">
+        <v>19</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>54</v>
+      <c r="C17" s="9" t="s">
+        <v>30</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>37</v>
-      </c>
+      <c r="D17" s="11"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -49276,19 +49264,17 @@
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
     </row>
-    <row r="18" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="9">
-        <v>16</v>
+    <row r="18" spans="1:22" ht="155.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="8">
+        <v>17</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>19</v>
+      <c r="B18" s="8" t="s">
+        <v>14</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>55</v>
+      <c r="C18" s="9" t="s">
+        <v>29</v>
       </c>
-      <c r="D18" s="11" t="s">
-        <v>38</v>
-      </c>
+      <c r="D18" s="11"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -49308,19 +49294,17 @@
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
     </row>
-    <row r="19" spans="1:22" ht="51" x14ac:dyDescent="0.2">
-      <c r="A19" s="9">
-        <v>17</v>
+    <row r="19" spans="1:22" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="8">
+        <v>18</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>14</v>
+      <c r="B19" s="8" t="s">
+        <v>20</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>46</v>
+      <c r="C19" s="9" t="s">
+        <v>40</v>
       </c>
-      <c r="D19" s="11" t="s">
-        <v>29</v>
-      </c>
+      <c r="D19" s="11"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -49340,19 +49324,17 @@
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
     </row>
-    <row r="20" spans="1:22" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="9">
-        <v>18</v>
+    <row r="20" spans="1:22" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="8">
+        <v>19</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>20</v>
+      <c r="B20" s="8" t="s">
+        <v>21</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>57</v>
+      <c r="C20" s="9" t="s">
+        <v>41</v>
       </c>
-      <c r="D20" s="11" t="s">
-        <v>39</v>
-      </c>
+      <c r="D20" s="11"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -49372,19 +49354,11 @@
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
     </row>
-    <row r="21" spans="1:22" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="9">
-        <v>19</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>40</v>
-      </c>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="3"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -72948,53 +72922,9 @@
       <c r="U1002" s="2"/>
       <c r="V1002" s="2"/>
     </row>
-    <row r="1003" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1003" s="2"/>
-      <c r="B1003" s="2"/>
-      <c r="C1003" s="5"/>
-      <c r="D1003" s="3"/>
-      <c r="E1003" s="2"/>
-      <c r="F1003" s="2"/>
-      <c r="G1003" s="2"/>
-      <c r="H1003" s="2"/>
-      <c r="I1003" s="2"/>
-      <c r="J1003" s="2"/>
-      <c r="K1003" s="2"/>
-      <c r="L1003" s="2"/>
-      <c r="M1003" s="2"/>
-      <c r="N1003" s="2"/>
-      <c r="O1003" s="2"/>
-      <c r="P1003" s="2"/>
-      <c r="Q1003" s="2"/>
-      <c r="R1003" s="2"/>
-      <c r="S1003" s="2"/>
-      <c r="T1003" s="2"/>
-      <c r="U1003" s="2"/>
-      <c r="V1003" s="2"/>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
-    <hyperlink ref="D2" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
-    <hyperlink ref="D6" r:id="rId4"/>
-    <hyperlink ref="D8" r:id="rId5"/>
-    <hyperlink ref="D9" r:id="rId6"/>
-    <hyperlink ref="D11" r:id="rId7" location="open-source-third-party-software-licenses"/>
-    <hyperlink ref="D13" r:id="rId8"/>
-    <hyperlink ref="D12" r:id="rId9"/>
-    <hyperlink ref="D15" r:id="rId10" location="github"/>
-    <hyperlink ref="D16" r:id="rId11"/>
-    <hyperlink ref="D14" r:id="rId12" location="jenkins"/>
-    <hyperlink ref="D18" r:id="rId13"/>
-    <hyperlink ref="D19" r:id="rId14"/>
-    <hyperlink ref="D20" r:id="rId15"/>
-    <hyperlink ref="D21" r:id="rId16"/>
-    <hyperlink ref="D5" r:id="rId17"/>
-    <hyperlink ref="D7" r:id="rId18"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId19"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/docs/Evidence/Attachment E Approach Criteria Evidence NorthropGrumman.xlsx
+++ b/docs/Evidence/Attachment E Approach Criteria Evidence NorthropGrumman.xlsx
@@ -99,23 +99,6 @@
   </si>
   <si>
     <t>assembled a multidisciplinary and collaborative team including a minimum of 5 labor categories from the Development Pool labor categories to design and develop the prototype</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">We used Docker as our container system for our MedExplorer prototype.
-Digital Playbook#4 Build the service using agile and iterative practices
-Digital Playbook#9 Deploy in a flexible hosting environment
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>NOTE: [TODO: Need docker screenshot.]</t>
-    </r>
   </si>
   <si>
     <t>Using our Agile framework, which is built upon Scrum, Extreme Programming, and user-centered design techniques, we were able to develop the product in an iterative fashion while receiving regular, timely feedback from users and stakeholders. We conducted an initial sprint 0 as we identified the team and coordinated the infrastructure. Then we used sprint cycles of 5 hours each comprised of sprint planning, execution, and review (demo and retrospective).
@@ -261,6 +244,12 @@
 Digital Playbook#3 Make it simple and intuitive
 URL: 
 http://git.triad.local/NorthropGrumman/MedExplorer/blob/master/docs/User%20Centered%20Design/Design%20Style%20Guide/Style_Guide_Master.pdf</t>
+  </si>
+  <si>
+    <t>We used Docker as our container system for our MedExplorer prototype.
+Digital Playbook#4 Build the service using agile and iterative practices
+Digital Playbook#9 Deploy in a flexible hosting environment
+http://git.triad.local/NorthropGrumman/MedExplorer/blob/master/docs/Software%20Development/Processes/DevOps.md#continuous-deliverydeployment</t>
   </si>
 </sst>
 </file>
@@ -48793,7 +48782,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="2"/>
@@ -48823,7 +48812,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="2"/>
@@ -48853,7 +48842,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="2"/>
@@ -48883,7 +48872,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="2"/>
@@ -48913,7 +48902,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -48942,7 +48931,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="2"/>
@@ -48972,7 +48961,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="2"/>
@@ -49002,7 +48991,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="2"/>
@@ -49032,7 +49021,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="2"/>
@@ -49062,7 +49051,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="2"/>
@@ -49092,7 +49081,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="2"/>
@@ -49122,7 +49111,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="2"/>
@@ -49152,7 +49141,7 @@
         <v>15</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="2"/>
@@ -49182,7 +49171,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="2"/>
@@ -49212,7 +49201,7 @@
         <v>18</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="2"/>
@@ -49242,7 +49231,7 @@
         <v>19</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="2"/>
@@ -49272,7 +49261,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="2"/>
@@ -49302,7 +49291,7 @@
         <v>20</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="2"/>
@@ -49332,7 +49321,7 @@
         <v>21</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="2"/>

--- a/docs/Evidence/Attachment E Approach Criteria Evidence NorthropGrumman.xlsx
+++ b/docs/Evidence/Attachment E Approach Criteria Evidence NorthropGrumman.xlsx
@@ -160,13 +160,6 @@
 http://git.triad.local/NorthropGrumman/MedExplorer/blob/master/docs/User%20Centered%20Design/User%20Centered%20Design.md</t>
   </si>
   <si>
-    <t>Our UX team performed a number of usability tests with users and provided feedback to the development staff.
-Once we had some initial features in place, usability tests were run daily.
-Digital Playbook#4 Build the service using agile and iterative practices
-URL: 
-http://git.triad.local/NorthropGrumman/MedExplorer/blob/master/docs/User%20Centered%20Design/Research%20Findings/Generative_Research.pdf</t>
-  </si>
-  <si>
     <t>Our MedExplorer used a number for modern, open source technologies, including TwitterBootstrap, AngularJS, NodeJS, ExpressJS, Docker, MongoDB, Jenkins and Zabbix.
 Digital Playbook#8 Choose a modern technology stack
 URL: 
@@ -250,6 +243,14 @@
 Digital Playbook#4 Build the service using agile and iterative practices
 Digital Playbook#9 Deploy in a flexible hosting environment
 http://git.triad.local/NorthropGrumman/MedExplorer/blob/master/docs/Software%20Development/Processes/DevOps.md#continuous-deliverydeployment</t>
+  </si>
+  <si>
+    <t>Our UX team performed a number of usability tests with users and provided feedback to the development staff.
+Once we had some initial features in place, usability tests were run daily.
+Digital Playbook#4 Build the service using agile and iterative practices
+URL: 
+http://git.triad.local/NorthropGrumman/MedExplorer/blob/master/docs/User Centered Design/Research Findings/Focus Group2.pdf
+http://git.triad.local/NorthropGrumman/MedExplorer/blob/master/docs/User%20Centered%20Design/Research%20Findings/Generative_Research.pdf</t>
   </si>
 </sst>
 </file>
@@ -48902,7 +48903,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -48931,7 +48932,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="2"/>
@@ -49021,7 +49022,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="2"/>
@@ -49051,7 +49052,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="2"/>
@@ -49081,7 +49082,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="2"/>
@@ -49111,7 +49112,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="2"/>
@@ -49141,7 +49142,7 @@
         <v>15</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="2"/>
@@ -49171,7 +49172,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="2"/>
@@ -49201,7 +49202,7 @@
         <v>18</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="2"/>
@@ -49291,7 +49292,7 @@
         <v>20</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="2"/>
@@ -49321,7 +49322,7 @@
         <v>21</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="2"/>

--- a/docs/Evidence/Attachment E Approach Criteria Evidence NorthropGrumman.xlsx
+++ b/docs/Evidence/Attachment E Approach Criteria Evidence NorthropGrumman.xlsx
@@ -104,24 +104,6 @@
     <t>Using our Agile framework, which is built upon Scrum, Extreme Programming, and user-centered design techniques, we were able to develop the product in an iterative fashion while receiving regular, timely feedback from users and stakeholders. We conducted an initial sprint 0 as we identified the team and coordinated the infrastructure. Then we used sprint cycles of 5 hours each comprised of sprint planning, execution, and review (demo and retrospective).
 Digital Playbook#4 Build the service using agile and iterative practices
 URL: http://git.triad.local/NorthropGrumman/MedExplorer/blob/master/docs/User%20Centered%20Design/Research%20Findings/Generative_Research.pdf</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Our MedExplorer prototype was design for multiple platforms including PCs, laptops, tablets, and phones.
-Digital Playbook#2 Address the whole experience, from start to finish
-Digital Playbook#7 Bring in experienced teams
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-URL: [TODO: need screenshots and pictures for multiple platforms]</t>
-    </r>
   </si>
   <si>
     <t>Using our Agile framework, which is built upon Scrum, Extreme Programming, and user-centered design techniques, we were able to develop the product in an iterative fashion while receiving regular, timely feedback from users and stakeholders. We conducted an initial sprint 0 as we identified the team and coordinated the infrastructure. Then we used sprint cycles of 5 hours each comprised of sprint planning, execution, and review (demo and retrospective).
@@ -252,12 +234,19 @@
 http://git.triad.local/NorthropGrumman/MedExplorer/blob/master/docs/User Centered Design/Research Findings/Focus Group2.pdf
 http://git.triad.local/NorthropGrumman/MedExplorer/blob/master/docs/User%20Centered%20Design/Research%20Findings/Generative_Research.pdf</t>
   </si>
+  <si>
+    <t>Our MedExplorer prototype was design for multiple platforms including PCs, laptops, tablets, and phones.
+Digital Playbook#2 Address the whole experience, from start to finish
+Digital Playbook#7 Bring in experienced teams
+URL: 
+http://git.triad.local/NorthropGrumman/MedExplorer/blob/master/docs/Software%20Development/Platform%20Support.md</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -276,12 +265,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -48783,7 +48766,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="2"/>
@@ -48813,7 +48796,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="2"/>
@@ -48843,7 +48826,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="2"/>
@@ -48873,7 +48856,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="2"/>
@@ -48903,7 +48886,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -48932,7 +48915,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="2"/>
@@ -48984,15 +48967,15 @@
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
     </row>
-    <row r="9" spans="1:22" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" ht="111" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>27</v>
+      <c r="C9" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="2"/>
@@ -49022,7 +49005,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="2"/>
@@ -49052,7 +49035,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="2"/>
@@ -49082,7 +49065,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="2"/>
@@ -49112,7 +49095,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="2"/>
@@ -49142,7 +49125,7 @@
         <v>15</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="2"/>
@@ -49172,7 +49155,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="2"/>
@@ -49202,7 +49185,7 @@
         <v>18</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="2"/>
@@ -49232,7 +49215,7 @@
         <v>19</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="2"/>
@@ -49262,7 +49245,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="2"/>
@@ -49292,7 +49275,7 @@
         <v>20</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="2"/>
@@ -49322,7 +49305,7 @@
         <v>21</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="2"/>

--- a/docs/Evidence/Attachment E Approach Criteria Evidence NorthropGrumman.xlsx
+++ b/docs/Evidence/Attachment E Approach Criteria Evidence NorthropGrumman.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="44">
   <si>
     <t>#</t>
   </si>
@@ -101,17 +101,6 @@
     <t>assembled a multidisciplinary and collaborative team including a minimum of 5 labor categories from the Development Pool labor categories to design and develop the prototype</t>
   </si>
   <si>
-    <t>Using our Agile framework, which is built upon Scrum, Extreme Programming, and user-centered design techniques, we were able to develop the product in an iterative fashion while receiving regular, timely feedback from users and stakeholders. We conducted an initial sprint 0 as we identified the team and coordinated the infrastructure. Then we used sprint cycles of 5 hours each comprised of sprint planning, execution, and review (demo and retrospective).
-Digital Playbook#4 Build the service using agile and iterative practices
-URL: http://git.triad.local/NorthropGrumman/MedExplorer/blob/master/docs/User%20Centered%20Design/Research%20Findings/Generative_Research.pdf</t>
-  </si>
-  <si>
-    <t>Using our Agile framework, which is built upon Scrum, Extreme Programming, and user-centered design techniques, we were able to develop the product in an iterative fashion while receiving regular, timely feedback from users and stakeholders. We conducted an initial sprint 0 as we identified the team and coordinated the infrastructure. Then we used sprint cycles of 5 hours each comprised of sprint planning, execution, and review (demo and retrospective).
-Digital Playbook#4 Build the service using agile and iterative practices
-URL: 
-http://git.triad.local/NorthropGrumman/MedExplorer/blob/master/docs/User%20Centered%20Design/Research%20Findings/Generative_Research.pdf</t>
-  </si>
-  <si>
     <t>For our MedExplorer prototype, we used the openFDA API for Drug Labeling, Drug Enforcement Reports, and Drug Adverse Events.
 Digital Playbook#13 Default to open
 URL: 
@@ -128,24 +117,6 @@
 Digital Playbook#7 Bring in experienced teams
 URL:
 http://git.triad.local/NorthropGrumman/MedExplorer/blob/master/docs/MedExplorer%20Development%20Team.md</t>
-  </si>
-  <si>
-    <t>Our User Experience design team interviewed and performed user tests with a number for General Public and Clinician users. The team also met with Northrop Grumman's Clinical Advisory Group as part of our Health Division. Users participated in periodic demonstrations for feedback. Created scenarios and stories. The team gave periodic demonstrations to walk through scenarios and gather feedback. We captured feedback as user stories and added to the backlog for prioritization.
-Digital Playbook#1: Understand what people need
-URL: 
-http://git.triad.local/NorthropGrumman/MedExplorer/blob/master/docs/User%20Centered%20Design/User%20Centered%20Design.md</t>
-  </si>
-  <si>
-    <t>Our User Centered Design approach used a number of techniques and tools, including interviews, focus groups, expectancy tests, generative research, and usability tests.
-Digital Playbook#3 Make it simple and intuitive
-URL: 
-http://git.triad.local/NorthropGrumman/MedExplorer/blob/master/docs/User%20Centered%20Design/User%20Centered%20Design.md</t>
-  </si>
-  <si>
-    <t>Our MedExplorer used a number for modern, open source technologies, including TwitterBootstrap, AngularJS, NodeJS, ExpressJS, Docker, MongoDB, Jenkins and Zabbix.
-Digital Playbook#8 Choose a modern technology stack
-URL: 
-http://git.triad.local/NorthropGrumman/MedExplorer/blob/master/License.md#open-source-third-party-software-licenses</t>
   </si>
   <si>
     <t xml:space="preserve">Our development wrote unit tests for their code and was part of the team's definition of done.
@@ -202,19 +173,6 @@
     </r>
   </si>
   <si>
-    <t>Our development team used Jenkins for our continuous integration system to automate running of tests and to perform continuous deployment.
-Digital Playbook#10 Automate testing and deployments
-URL: 
-http://git.triad.local/NorthropGrumman/MedExplorer/tree/master/docs/Software%20Development/Screenshots#jenkins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Our MedExplorer prototype is deployed on a IaaS provider, we selected IBM SoftLayers as our provider.
-Digital Playbook#9 Deploy in a flexible hosting environment
-URL: 
-http://MedExplorer.northropgrumman.com/
-</t>
-  </si>
-  <si>
     <t>Our UX team created a design style guide to provide guidance for the web front end developers. Style guides were updated each sprint with development.
 Digital Playbook#3 Make it simple and intuitive
 URL: 
@@ -227,19 +185,65 @@
 http://git.triad.local/NorthropGrumman/MedExplorer/blob/master/docs/Software%20Development/Processes/DevOps.md#continuous-deliverydeployment</t>
   </si>
   <si>
-    <t>Our UX team performed a number of usability tests with users and provided feedback to the development staff.
-Once we had some initial features in place, usability tests were run daily.
-Digital Playbook#4 Build the service using agile and iterative practices
-URL: 
-http://git.triad.local/NorthropGrumman/MedExplorer/blob/master/docs/User Centered Design/Research Findings/Focus Group2.pdf
-http://git.triad.local/NorthropGrumman/MedExplorer/blob/master/docs/User%20Centered%20Design/Research%20Findings/Generative_Research.pdf</t>
-  </si>
-  <si>
     <t>Our MedExplorer prototype was design for multiple platforms including PCs, laptops, tablets, and phones.
 Digital Playbook#2 Address the whole experience, from start to finish
 Digital Playbook#7 Bring in experienced teams
 URL: 
 http://git.triad.local/NorthropGrumman/MedExplorer/blob/master/docs/Software%20Development/Platform%20Support.md</t>
+  </si>
+  <si>
+    <t>Our User Experience design team interviewed and performed user tests with a number for General Public and Clinician users. The team also met with Northrop Grumman's Clinical Advisory Group as part of our Health Division. Users participated in periodic demonstrations for feedback. Created scenarios and stories. The team gave periodic demonstrations to walk through scenarios and gather feedback. We captured feedback as user stories and added to the backlog for prioritization.
+Digital Playbook#1: Understand what people need
+URL: 
+http://git.triad.local/NorthropGrumman/MedExplorer/tree/master/docs/User%20Centered%20Design/Research%20Findings
+http://git.triad.local/NorthropGrumman/MedExplorer/tree/master/docs/User%20Centered%20Design/Scenarios
+http://git.triad.local/NorthropGrumman/MedExplorer/tree/master/docs/Software%20Development/User-Stories</t>
+  </si>
+  <si>
+    <t>Our User Centered Design approach used a number of techniques and tools, including interviews, focus groups, expectancy tests, generative research, and usability tests.
+Digital Playbook#3 Make it simple and intuitive
+URL: 
+http://git.triad.local/NorthropGrumman/MedExplorer/blob/master/docs/User%20Centered%20Design/Readme.md</t>
+  </si>
+  <si>
+    <t>Our UX team performed a number of usability tests with users and provided feedback to the development staff.
+Once we had some initial features in place, usability tests were run daily.
+Digital Playbook#4 Build the service using agile and iterative practices
+URL: 
+http://git.triad.local/NorthropGrumman/MedExplorer/blob/master/docs/User%20Centered%20Design/Research%20Findings/Focus%20Group2.pdf
+http://git.triad.local/NorthropGrumman/MedExplorer/blob/master/docs/User%20Centered%20Design/Research%20Findings/Generative_Research.pdf</t>
+  </si>
+  <si>
+    <t>Using our Agile framework, which is built upon Scrum, Extreme Programming, and user-centered design techniques, we were able to develop the product in an iterative fashion while receiving regular, timely feedback from users and stakeholders. We conducted an initial sprint 0 as we identified the team and coordinated the infrastructure. Then we used sprint cycles of 5 hours each comprised of sprint planning, execution, and review (demo and retrospective).
+Digital Playbook#4 Build the service using agile and iterative practices
+URL: 
+http://git.triad.local/NorthropGrumman/MedExplorer/blob/master/docs/Software%20Development/Processes/Readme.md
+http://git.triad.local/NorthropGrumman/MedExplorer/blob/master/docs/User%20Centered%20Design/Readme.md
+http://git.triad.local/NorthropGrumman/MedExplorer/blob/master/docs/Software%20Development/Iterative%20Development.md
+http://git.triad.local/NorthropGrumman/MedExplorer/blob/master/docs/User%20Centered%20Design/Research%20Findings/Generative_Research.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our MedExplorer used a number for modern, open source technologies, including TwitterBootstrap, AngularJS, NodeJS, ExpressJS, Docker, MongoDB, Jenkins and Zabbix.
+Digital Playbook#8 Choose a modern technology stack
+URL: 
+http://git.triad.local/NorthropGrumman/MedExplorer/blob/master/License.md#open-source-third-party-software-licenses
+http://git.triad.local/NorthropGrumman/MedExplorer/blob/master/docs/Diagrams/MedExplorer_TechnologyStack.png
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our MedExplorer prototype is deployed on a IaaS provider, we selected IBM SoftLayers as our provider.
+Digital Playbook#9 Deploy in a flexible hosting environment
+URL: 
+http://MedExplorer.northropgrumman.com
+http://git.triad.local/NorthropGrumman/MedExplorer/blob/master/docs/Software%20Development/Screenshots/softlayer.png
+</t>
+  </si>
+  <si>
+    <t>Our development team used Jenkins for our continuous integration system to automate running of tests and to perform continuous deployment.
+Digital Playbook#10 Automate testing and deployments
+URL: 
+http://git.triad.local/NorthropGrumman/MedExplorer/tree/master/docs/Software%20Development/Screenshots#jenkins
+http://git.triad.local/NorthropGrumman/MedExplorer/blob/master/docs/Software%20Development/Processes/DevOps.md#continuous-integration</t>
   </si>
 </sst>
 </file>
@@ -48724,8 +48728,8 @@
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="41.140625" customWidth="1"/>
-    <col min="3" max="3" width="91" style="13" customWidth="1"/>
-    <col min="4" max="4" width="42.85546875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="126" style="13" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
@@ -48758,7 +48762,7 @@
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
     </row>
-    <row r="2" spans="1:22" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -48766,7 +48770,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="2"/>
@@ -48788,7 +48792,7 @@
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
     </row>
-    <row r="3" spans="1:22" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -48796,7 +48800,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="2"/>
@@ -48818,7 +48822,7 @@
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
     </row>
-    <row r="4" spans="1:22" ht="141" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -48826,7 +48830,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="2"/>
@@ -48848,7 +48852,7 @@
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
     </row>
-    <row r="5" spans="1:22" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -48856,7 +48860,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="2"/>
@@ -48886,7 +48890,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -48915,7 +48919,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="2"/>
@@ -48937,7 +48941,7 @@
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
     </row>
-    <row r="8" spans="1:22" ht="118.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" ht="159.94999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -48945,7 +48949,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="2"/>
@@ -48967,7 +48971,7 @@
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
     </row>
-    <row r="9" spans="1:22" ht="111" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -48975,7 +48979,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="2"/>
@@ -49005,7 +49009,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="2"/>
@@ -49027,7 +49031,7 @@
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
     </row>
-    <row r="11" spans="1:22" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -49035,7 +49039,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="2"/>
@@ -49057,7 +49061,7 @@
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
     </row>
-    <row r="12" spans="1:22" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" ht="93.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -49065,7 +49069,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="2"/>
@@ -49095,7 +49099,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="2"/>
@@ -49125,7 +49129,7 @@
         <v>15</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="2"/>
@@ -49155,7 +49159,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="2"/>
@@ -49185,7 +49189,7 @@
         <v>18</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="2"/>
@@ -49207,7 +49211,7 @@
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
     </row>
-    <row r="17" spans="1:22" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -49215,7 +49219,7 @@
         <v>19</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="2"/>
@@ -49237,7 +49241,7 @@
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
     </row>
-    <row r="18" spans="1:22" ht="155.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" ht="159.94999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>17</v>
       </c>
@@ -49245,7 +49249,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="2"/>
@@ -49267,7 +49271,7 @@
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
     </row>
-    <row r="19" spans="1:22" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -49275,7 +49279,7 @@
         <v>20</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="2"/>
@@ -49297,7 +49301,7 @@
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
     </row>
-    <row r="20" spans="1:22" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>19</v>
       </c>
@@ -49305,7 +49309,7 @@
         <v>21</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="2"/>

--- a/docs/Evidence/Attachment E Approach Criteria Evidence NorthropGrumman.xlsx
+++ b/docs/Evidence/Attachment E Approach Criteria Evidence NorthropGrumman.xlsx
@@ -119,14 +119,6 @@
 http://git.triad.local/NorthropGrumman/MedExplorer/blob/master/docs/MedExplorer%20Development%20Team.md</t>
   </si>
   <si>
-    <t xml:space="preserve">Our development wrote unit tests for their code and was part of the team's definition of done.
-Digital Playbook#10 Automate testing and deployments
-URL: 
-http://git.triad.local/NorthropGrumman/MedExplorer/tree/master/src/client/test 
-http://git.triad.local/NorthropGrumman/MedExplorer/blob/master/docs/Pictures/Definition%20of%20Done.jpg
-</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">We used an internal GitHub Enterprise server as our </t>
     </r>
@@ -244,6 +236,14 @@
 URL: 
 http://git.triad.local/NorthropGrumman/MedExplorer/tree/master/docs/Software%20Development/Screenshots#jenkins
 http://git.triad.local/NorthropGrumman/MedExplorer/blob/master/docs/Software%20Development/Processes/DevOps.md#continuous-integration</t>
+  </si>
+  <si>
+    <t>Our development wrote unit tests for their code and was part of the team's definition of done. The front-end unit testing is done using the Jasmine testing framework, which is run by the Karma test-runner. The back-end code is tested using the UnitJS testing framework and is run by mocha. These unit tests were automated using Jenkins so that they run after every commit. 
+Digital Playbook#10 Automate testing and deployments
+URL: 
+http://git.triad.local/NorthropGrumman/MedExplorer/tree/master/src/client/test 
+http://git.triad.local/NorthropGrumman/MedExplorer/blob/master/docs/Pictures/Definition%20of%20Done.jpg
+http://git.triad.local/NorthropGrumman/MedExplorer/blob/master/docs/Software%20Development/Processes/DevOps.md#unit-testing-and-automated-test</t>
   </si>
 </sst>
 </file>
@@ -24708,7 +24708,7 @@
   <dimension ref="A1:V996"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -48721,7 +48721,7 @@
   <dimension ref="A1:V1002"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -48830,7 +48830,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="2"/>
@@ -48860,7 +48860,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="2"/>
@@ -48890,7 +48890,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -48919,7 +48919,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="2"/>
@@ -48949,7 +48949,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="2"/>
@@ -48979,7 +48979,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="2"/>
@@ -49009,7 +49009,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="2"/>
@@ -49039,7 +49039,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="2"/>
@@ -49061,7 +49061,7 @@
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
     </row>
-    <row r="12" spans="1:22" ht="93.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" ht="144.94999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -49069,7 +49069,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="2"/>
@@ -49099,7 +49099,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="2"/>
@@ -49129,7 +49129,7 @@
         <v>15</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="2"/>
@@ -49159,7 +49159,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="2"/>
@@ -49189,7 +49189,7 @@
         <v>18</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="2"/>
@@ -49249,7 +49249,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="2"/>
@@ -49279,7 +49279,7 @@
         <v>20</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="2"/>
@@ -49309,7 +49309,7 @@
         <v>21</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="2"/>

--- a/docs/Evidence/Attachment E Approach Criteria Evidence NorthropGrumman.xlsx
+++ b/docs/Evidence/Attachment E Approach Criteria Evidence NorthropGrumman.xlsx
@@ -99,12 +99,6 @@
   </si>
   <si>
     <t>assembled a multidisciplinary and collaborative team including a minimum of 5 labor categories from the Development Pool labor categories to design and develop the prototype</t>
-  </si>
-  <si>
-    <t>For our MedExplorer prototype, we used the openFDA API for Drug Labeling, Drug Enforcement Reports, and Drug Adverse Events.
-Digital Playbook#13 Default to open
-URL: 
-http://git.triad.local/NorthropGrumman/MedExplorer/blob/master/src/server/controllers/datasource.js</t>
   </si>
   <si>
     <t>We assigned our Product Manager (Ray R.) and gave him the authority, responsibility, and accountability for the MedExplorer prototype. 
@@ -244,6 +238,12 @@
 http://git.triad.local/NorthropGrumman/MedExplorer/tree/master/src/client/test 
 http://git.triad.local/NorthropGrumman/MedExplorer/blob/master/docs/Pictures/Definition%20of%20Done.jpg
 http://git.triad.local/NorthropGrumman/MedExplorer/blob/master/docs/Software%20Development/Processes/DevOps.md#unit-testing-and-automated-test</t>
+  </si>
+  <si>
+    <t>For our MedExplorer prototype, we used the openFDA API for Drug Labeling, Drug Enforcement Reports, and Drug Adverse Events, as shown in the linked source code. 
+Digital Playbook#13 Default to open
+URL: 
+http://git.triad.local/NorthropGrumman/MedExplorer/blob/master/src/server/controllers/datasource.js</t>
   </si>
 </sst>
 </file>
@@ -48721,7 +48721,7 @@
   <dimension ref="A1:V1002"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -48770,7 +48770,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="2"/>
@@ -48800,7 +48800,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="2"/>
@@ -48830,7 +48830,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="2"/>
@@ -48860,7 +48860,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="2"/>
@@ -48890,7 +48890,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -48919,7 +48919,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="2"/>
@@ -48949,7 +48949,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="2"/>
@@ -48979,7 +48979,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="2"/>
@@ -49009,7 +49009,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="2"/>
@@ -49039,7 +49039,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="2"/>
@@ -49069,7 +49069,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="2"/>
@@ -49099,7 +49099,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="2"/>
@@ -49129,7 +49129,7 @@
         <v>15</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="2"/>
@@ -49159,7 +49159,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="2"/>
@@ -49189,7 +49189,7 @@
         <v>18</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="2"/>
@@ -49211,7 +49211,7 @@
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
     </row>
-    <row r="17" spans="1:22" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -49219,7 +49219,7 @@
         <v>19</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="2"/>
@@ -49249,7 +49249,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="2"/>
@@ -49279,7 +49279,7 @@
         <v>20</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="2"/>
@@ -49309,7 +49309,7 @@
         <v>21</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="2"/>
